--- a/project 8/bin/Debug/Users.xlsx
+++ b/project 8/bin/Debug/Users.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,32 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Omer</t>
+  </si>
+  <si>
+    <t>Avisror</t>
+  </si>
+  <si>
+    <t>jimmy</t>
+  </si>
+  <si>
+    <t>james</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Parker</t>
+  </si>
+  <si>
+    <t>dibs</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -69,7 +95,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -331,12 +357,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>208063511</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>12345</v>
+      </c>
+      <c r="E1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>987654321</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>54321</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>123456789</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/project 8/bin/Debug/Users.xlsx
+++ b/project 8/bin/Debug/Users.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,38 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Omer</t>
+  </si>
+  <si>
+    <t>Avisror</t>
+  </si>
+  <si>
+    <t>jimmy</t>
+  </si>
+  <si>
+    <t>james</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Parker</t>
+  </si>
+  <si>
+    <t>dibs</t>
+  </si>
+  <si>
+    <t>Liat</t>
+  </si>
+  <si>
+    <t>Mulian</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -69,7 +101,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -331,12 +363,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>208063511</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>12345</v>
+      </c>
+      <c r="E1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>987654321</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>54321</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>123456789</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>313301129</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>546500</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/project 8/bin/Debug/Users.xlsx
+++ b/project 8/bin/Debug/Users.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50D1AB5-3AC4-4040-809A-3EB00FCB61DF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Omer</t>
   </si>
@@ -27,31 +28,19 @@
     <t>Avisror</t>
   </si>
   <si>
-    <t>jimmy</t>
-  </si>
-  <si>
-    <t>james</t>
-  </si>
-  <si>
-    <t>Peter</t>
-  </si>
-  <si>
-    <t>Parker</t>
-  </si>
-  <si>
-    <t>dibs</t>
-  </si>
-  <si>
     <t>Liat</t>
   </si>
   <si>
     <t>Mulian</t>
   </si>
+  <si>
+    <t>0546500</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -81,8 +70,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,20 +352,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1">
+      <c r="A1" s="1">
         <v>208063511</v>
       </c>
       <c r="B1" t="s">
@@ -384,7 +375,7 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1">
         <v>12345</v>
       </c>
       <c r="E1" t="b">
@@ -392,8 +383,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>987654321</v>
+      <c r="A2" s="1">
+        <v>313301129</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -401,48 +392,15 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2">
-        <v>54321</v>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>123456789</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>313301129</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>546500</v>
-      </c>
-      <c r="E4" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/project 8/bin/Debug/Users.xlsx
+++ b/project 8/bin/Debug/Users.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50D1AB5-3AC4-4040-809A-3EB00FCB61DF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D734BA4-4224-4B6C-84B5-7DE9893B334D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Omer</t>
   </si>
@@ -35,6 +35,18 @@
   </si>
   <si>
     <t>0546500</t>
+  </si>
+  <si>
+    <t>204264543</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>marinescu</t>
+  </si>
+  <si>
+    <t>1234</t>
   </si>
 </sst>
 </file>
@@ -353,7 +365,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
@@ -399,6 +411,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/project 8/bin/Debug/Users.xlsx
+++ b/project 8/bin/Debug/Users.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D734BA4-4224-4B6C-84B5-7DE9893B334D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329A3230-3855-42A2-B53D-6FA8EE25318F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Omer</t>
   </si>
@@ -47,6 +47,48 @@
   </si>
   <si>
     <t>1234</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>987654324</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>sss</t>
+  </si>
+  <si>
+    <t>123333223</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>aaaaaa</t>
+  </si>
+  <si>
+    <t>316440262</t>
+  </si>
+  <si>
+    <t>shani</t>
+  </si>
+  <si>
+    <t>waizman</t>
+  </si>
+  <si>
+    <t>0393</t>
   </si>
 </sst>
 </file>
@@ -365,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
@@ -428,6 +470,74 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/project 8/bin/Debug/Users.xlsx
+++ b/project 8/bin/Debug/Users.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329A3230-3855-42A2-B53D-6FA8EE25318F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="2880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Omer</t>
   </si>
@@ -89,12 +88,24 @@
   </si>
   <si>
     <t>0393</t>
+  </si>
+  <si>
+    <t>316904978</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Elisha</t>
+  </si>
+  <si>
+    <t>123abc1a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -406,11 +417,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,6 +549,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/project 8/bin/Debug/Users.xlsx
+++ b/project 8/bin/Debug/Users.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="2880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,12 +30,6 @@
     <t>Liat</t>
   </si>
   <si>
-    <t>Mulian</t>
-  </si>
-  <si>
-    <t>0546500</t>
-  </si>
-  <si>
     <t>204264543</t>
   </si>
   <si>
@@ -100,17 +94,23 @@
   </si>
   <si>
     <t>123abc1a</t>
+  </si>
+  <si>
+    <t>golber</t>
+  </si>
+  <si>
+    <t>2701</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -410,7 +410,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -421,16 +421,16 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="4" max="4" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>208063511</v>
       </c>
@@ -447,7 +447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>313301129</v>
       </c>
@@ -455,112 +455,112 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>

--- a/project 8/bin/Debug/Users.xlsx
+++ b/project 8/bin/Debug/Users.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B2E65E-65CC-482B-A253-4E255041DC8B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="2880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Omer</t>
   </si>
@@ -40,36 +41,6 @@
   </si>
   <si>
     <t>1234</t>
-  </si>
-  <si>
-    <t>123456789</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>987654324</t>
-  </si>
-  <si>
-    <t>ss</t>
-  </si>
-  <si>
-    <t>sss</t>
-  </si>
-  <si>
-    <t>123333223</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>aaaaaa</t>
   </si>
   <si>
     <t>316440262</t>
@@ -105,12 +76,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -410,27 +381,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.125" style="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>208063511</v>
       </c>
@@ -447,7 +418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>313301129</v>
       </c>
@@ -455,16 +426,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -481,7 +452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -495,10 +466,10 @@
         <v>10</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -509,60 +480,9 @@
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="b">
         <v>1</v>
       </c>
     </row>

--- a/project 8/bin/Debug/Users.xlsx
+++ b/project 8/bin/Debug/Users.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B2E65E-65CC-482B-A253-4E255041DC8B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D55B34-A646-4347-8481-C6F5320A363B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Omer</t>
   </si>
@@ -71,6 +71,15 @@
   </si>
   <si>
     <t>2701</t>
+  </si>
+  <si>
+    <t>316470590</t>
+  </si>
+  <si>
+    <t>yarden</t>
+  </si>
+  <si>
+    <t>atias</t>
   </si>
 </sst>
 </file>
@@ -389,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
@@ -486,6 +495,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/project 8/bin/Debug/Users.xlsx
+++ b/project 8/bin/Debug/Users.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D55B34-A646-4347-8481-C6F5320A363B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB386CA-1D13-4A07-8477-2AEAD994EDDF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,64 +22,64 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
+    <t>Avisror</t>
+  </si>
+  <si>
+    <t>Liat</t>
+  </si>
+  <si>
+    <t>204264543</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>marinescu</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>316440262</t>
+  </si>
+  <si>
+    <t>shani</t>
+  </si>
+  <si>
+    <t>waizman</t>
+  </si>
+  <si>
+    <t>0393</t>
+  </si>
+  <si>
+    <t>316904978</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Elisha</t>
+  </si>
+  <si>
+    <t>123abc1a</t>
+  </si>
+  <si>
+    <t>golber</t>
+  </si>
+  <si>
+    <t>2701</t>
+  </si>
+  <si>
+    <t>316470590</t>
+  </si>
+  <si>
+    <t>yarden</t>
+  </si>
+  <si>
+    <t>atias</t>
+  </si>
+  <si>
     <t>Omer</t>
-  </si>
-  <si>
-    <t>Avisror</t>
-  </si>
-  <si>
-    <t>Liat</t>
-  </si>
-  <si>
-    <t>204264543</t>
-  </si>
-  <si>
-    <t>Dan</t>
-  </si>
-  <si>
-    <t>marinescu</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>316440262</t>
-  </si>
-  <si>
-    <t>shani</t>
-  </si>
-  <si>
-    <t>waizman</t>
-  </si>
-  <si>
-    <t>0393</t>
-  </si>
-  <si>
-    <t>316904978</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>Elisha</t>
-  </si>
-  <si>
-    <t>123abc1a</t>
-  </si>
-  <si>
-    <t>golber</t>
-  </si>
-  <si>
-    <t>2701</t>
-  </si>
-  <si>
-    <t>316470590</t>
-  </si>
-  <si>
-    <t>yarden</t>
-  </si>
-  <si>
-    <t>atias</t>
   </si>
 </sst>
 </file>
@@ -401,7 +401,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,10 +415,10 @@
         <v>208063511</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="1">
         <v>12345</v>
@@ -432,13 +432,13 @@
         <v>313301129</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -446,16 +446,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -463,16 +463,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -480,16 +480,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -497,16 +497,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>

--- a/project 8/bin/Debug/Users.xlsx
+++ b/project 8/bin/Debug/Users.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB386CA-1D13-4A07-8477-2AEAD994EDDF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C5548C-F890-4168-AD38-4BA422D542FE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Avisror</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>Omer</t>
+  </si>
+  <si>
+    <t>204204204</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
 </sst>
 </file>
@@ -398,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
@@ -512,6 +518,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/project 8/bin/Debug/Users.xlsx
+++ b/project 8/bin/Debug/Users.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C5548C-F890-4168-AD38-4BA422D542FE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFD77E5-996C-4575-8FEE-EC143DD48105}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Avisror</t>
   </si>
@@ -86,6 +86,15 @@
   </si>
   <si>
     <t>m</t>
+  </si>
+  <si>
+    <t>305112005</t>
+  </si>
+  <si>
+    <t>israel</t>
+  </si>
+  <si>
+    <t>hadad</t>
   </si>
 </sst>
 </file>
@@ -404,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
@@ -535,6 +544,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/project 8/bin/Debug/Users.xlsx
+++ b/project 8/bin/Debug/Users.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B2E65E-65CC-482B-A253-4E255041DC8B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C5548C-F890-4168-AD38-4BA422D542FE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,57 +20,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+  <si>
+    <t>Avisror</t>
+  </si>
+  <si>
+    <t>Liat</t>
+  </si>
+  <si>
+    <t>204264543</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>marinescu</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>316440262</t>
+  </si>
+  <si>
+    <t>shani</t>
+  </si>
+  <si>
+    <t>waizman</t>
+  </si>
+  <si>
+    <t>0393</t>
+  </si>
+  <si>
+    <t>316904978</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Elisha</t>
+  </si>
+  <si>
+    <t>123abc1a</t>
+  </si>
+  <si>
+    <t>golber</t>
+  </si>
+  <si>
+    <t>2701</t>
+  </si>
+  <si>
+    <t>316470590</t>
+  </si>
+  <si>
+    <t>yarden</t>
+  </si>
+  <si>
+    <t>atias</t>
+  </si>
   <si>
     <t>Omer</t>
   </si>
   <si>
-    <t>Avisror</t>
-  </si>
-  <si>
-    <t>Liat</t>
-  </si>
-  <si>
-    <t>204264543</t>
-  </si>
-  <si>
-    <t>Dan</t>
-  </si>
-  <si>
-    <t>marinescu</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>316440262</t>
-  </si>
-  <si>
-    <t>shani</t>
-  </si>
-  <si>
-    <t>waizman</t>
-  </si>
-  <si>
-    <t>0393</t>
-  </si>
-  <si>
-    <t>316904978</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>Elisha</t>
-  </si>
-  <si>
-    <t>123abc1a</t>
-  </si>
-  <si>
-    <t>golber</t>
-  </si>
-  <si>
-    <t>2701</t>
+    <t>204204204</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
 </sst>
 </file>
@@ -389,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,10 +421,10 @@
         <v>208063511</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="1">
         <v>12345</v>
@@ -423,13 +438,13 @@
         <v>313301129</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -437,16 +452,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -454,16 +469,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -471,19 +486,53 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E5" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/project 8/bin/Debug/Users.xlsx
+++ b/project 8/bin/Debug/Users.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C5548C-F890-4168-AD38-4BA422D542FE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB386CA-1D13-4A07-8477-2AEAD994EDDF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Avisror</t>
   </si>
@@ -80,12 +80,6 @@
   </si>
   <si>
     <t>Omer</t>
-  </si>
-  <si>
-    <t>204204204</t>
-  </si>
-  <si>
-    <t>m</t>
   </si>
 </sst>
 </file>
@@ -404,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
@@ -518,23 +512,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/project 8/bin/Debug/Users.xlsx
+++ b/project 8/bin/Debug/Users.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB386CA-1D13-4A07-8477-2AEAD994EDDF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FF769E-B3A1-483F-974A-4B170E4396E6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Avisror</t>
   </si>
@@ -80,6 +80,33 @@
   </si>
   <si>
     <t>Omer</t>
+  </si>
+  <si>
+    <t>204204204</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>123456781</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>305112005</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Hadad</t>
   </si>
 </sst>
 </file>
@@ -398,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
@@ -512,6 +539,57 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
